--- a/import/4_List_group_DH.xlsx
+++ b/import/4_List_group_DH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L A P T R I N H V I EN WEBSITE\Cd2\nckh_ng\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D62FED0-2225-4A8E-8728-DB7E8D5F8F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCFEEEE-221F-4AE7-B028-6926C7BCA846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A71C13-185B-42A7-A4FA-5B290892829C}"/>
   </bookViews>
@@ -83,131 +83,131 @@
     <t>NHOM_8</t>
   </si>
   <si>
-    <t>23211DH0001</t>
-  </si>
-  <si>
-    <t>23211DH0002</t>
-  </si>
-  <si>
-    <t>23211DH0003</t>
-  </si>
-  <si>
-    <t>23211DH0004</t>
-  </si>
-  <si>
-    <t>23211DH0005</t>
-  </si>
-  <si>
-    <t>23211DH0006</t>
-  </si>
-  <si>
-    <t>23211DH0007</t>
-  </si>
-  <si>
-    <t>23211DH0008</t>
-  </si>
-  <si>
-    <t>23211DH0009</t>
-  </si>
-  <si>
-    <t>23211DH0010</t>
-  </si>
-  <si>
-    <t>23211DH0011</t>
-  </si>
-  <si>
-    <t>23211DH0012</t>
-  </si>
-  <si>
-    <t>23211DH0013</t>
-  </si>
-  <si>
-    <t>23211DH0014</t>
-  </si>
-  <si>
-    <t>23211DH0015</t>
-  </si>
-  <si>
-    <t>23211DH0016</t>
-  </si>
-  <si>
-    <t>23211DH0017</t>
-  </si>
-  <si>
-    <t>23211DH0018</t>
-  </si>
-  <si>
-    <t>23211DH0019</t>
-  </si>
-  <si>
-    <t>23211DH0020</t>
-  </si>
-  <si>
-    <t>23211DH0021</t>
-  </si>
-  <si>
-    <t>23211DH0022</t>
-  </si>
-  <si>
-    <t>23211DH0023</t>
-  </si>
-  <si>
-    <t>23211DH0024</t>
-  </si>
-  <si>
-    <t>23211DH0025</t>
-  </si>
-  <si>
-    <t>23211DH0026</t>
-  </si>
-  <si>
-    <t>23211DH0027</t>
-  </si>
-  <si>
-    <t>23211DH0028</t>
-  </si>
-  <si>
-    <t>23211DH0029</t>
-  </si>
-  <si>
-    <t>23211DH0030</t>
-  </si>
-  <si>
-    <t>23211DH0031</t>
-  </si>
-  <si>
-    <t>23211DH0032</t>
-  </si>
-  <si>
-    <t>23211DH0033</t>
-  </si>
-  <si>
-    <t>23211DH0034</t>
-  </si>
-  <si>
-    <t>23211DH0035</t>
-  </si>
-  <si>
-    <t>23211DH0036</t>
-  </si>
-  <si>
-    <t>23211DH0037</t>
-  </si>
-  <si>
-    <t>23211DH0038</t>
-  </si>
-  <si>
-    <t>23211DH0039</t>
-  </si>
-  <si>
-    <t>23211DH0040</t>
+    <t>SVDH001</t>
+  </si>
+  <si>
+    <t>SVDH002</t>
+  </si>
+  <si>
+    <t>SVDH003</t>
+  </si>
+  <si>
+    <t>SVDH004</t>
+  </si>
+  <si>
+    <t>SVDH005</t>
+  </si>
+  <si>
+    <t>SVDH006</t>
+  </si>
+  <si>
+    <t>SVDH007</t>
+  </si>
+  <si>
+    <t>SVDH008</t>
+  </si>
+  <si>
+    <t>SVDH009</t>
+  </si>
+  <si>
+    <t>SVDH010</t>
+  </si>
+  <si>
+    <t>SVDH011</t>
+  </si>
+  <si>
+    <t>SVDH012</t>
+  </si>
+  <si>
+    <t>SVDH013</t>
+  </si>
+  <si>
+    <t>SVDH014</t>
+  </si>
+  <si>
+    <t>SVDH015</t>
+  </si>
+  <si>
+    <t>SVDH016</t>
+  </si>
+  <si>
+    <t>SVDH017</t>
+  </si>
+  <si>
+    <t>SVDH018</t>
+  </si>
+  <si>
+    <t>SVDH019</t>
+  </si>
+  <si>
+    <t>SVDH020</t>
+  </si>
+  <si>
+    <t>SVDH021</t>
+  </si>
+  <si>
+    <t>SVDH022</t>
+  </si>
+  <si>
+    <t>SVDH023</t>
+  </si>
+  <si>
+    <t>SVDH024</t>
+  </si>
+  <si>
+    <t>SVDH025</t>
+  </si>
+  <si>
+    <t>SVDH026</t>
+  </si>
+  <si>
+    <t>SVDH027</t>
+  </si>
+  <si>
+    <t>SVDH028</t>
+  </si>
+  <si>
+    <t>SVDH029</t>
+  </si>
+  <si>
+    <t>SVDH030</t>
+  </si>
+  <si>
+    <t>SVDH031</t>
+  </si>
+  <si>
+    <t>SVDH032</t>
+  </si>
+  <si>
+    <t>SVDH033</t>
+  </si>
+  <si>
+    <t>SVDH034</t>
+  </si>
+  <si>
+    <t>SVDH035</t>
+  </si>
+  <si>
+    <t>SVDH036</t>
+  </si>
+  <si>
+    <t>SVDH037</t>
+  </si>
+  <si>
+    <t>SVDH038</t>
+  </si>
+  <si>
+    <t>SVDH039</t>
+  </si>
+  <si>
+    <t>SVDH040</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,25 +229,13 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,20 +296,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFBD6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -344,26 +320,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -399,42 +360,31 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D941B3-4561-4CFA-904E-99C092AB619F}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -784,7 +734,7 @@
     <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -798,21 +748,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="24">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -822,11 +772,11 @@
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -836,11 +786,11 @@
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -850,11 +800,11 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -864,11 +814,11 @@
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -878,11 +828,11 @@
       <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -892,11 +842,11 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -906,11 +856,11 @@
       <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -920,11 +870,11 @@
       <c r="C10" s="6">
         <v>2</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -934,25 +884,25 @@
       <c r="C11" s="6">
         <v>2</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="22">
         <v>3</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -962,11 +912,11 @@
       <c r="C13" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -976,11 +926,11 @@
       <c r="C14" s="8">
         <v>3</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -990,11 +940,11 @@
       <c r="C15" s="8">
         <v>3</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1004,11 +954,11 @@
       <c r="C16" s="8">
         <v>3</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
@@ -1018,11 +968,11 @@
       <c r="C17" s="10">
         <v>4</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
@@ -1032,11 +982,11 @@
       <c r="C18" s="10">
         <v>4</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
@@ -1046,11 +996,11 @@
       <c r="C19" s="10">
         <v>4</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
@@ -1060,11 +1010,11 @@
       <c r="C20" s="10">
         <v>4</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -1074,25 +1024,25 @@
       <c r="C21" s="10">
         <v>4</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="29" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="26">
         <v>5</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>11</v>
       </c>
@@ -1102,11 +1052,11 @@
       <c r="C23" s="12">
         <v>5</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>11</v>
       </c>
@@ -1116,11 +1066,11 @@
       <c r="C24" s="12">
         <v>5</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>11</v>
       </c>
@@ -1130,11 +1080,11 @@
       <c r="C25" s="12">
         <v>5</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>11</v>
       </c>
@@ -1144,25 +1094,25 @@
       <c r="C26" s="12">
         <v>5</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="20">
         <v>6</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>12</v>
       </c>
@@ -1172,11 +1122,11 @@
       <c r="C28" s="14">
         <v>6</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>12</v>
       </c>
@@ -1186,11 +1136,11 @@
       <c r="C29" s="14">
         <v>6</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>12</v>
       </c>
@@ -1200,11 +1150,11 @@
       <c r="C30" s="14">
         <v>6</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>12</v>
       </c>
@@ -1214,25 +1164,25 @@
       <c r="C31" s="14">
         <v>6</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="28">
         <v>7</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>13</v>
       </c>
@@ -1242,11 +1192,11 @@
       <c r="C33" s="16">
         <v>7</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>13</v>
       </c>
@@ -1256,11 +1206,11 @@
       <c r="C34" s="16">
         <v>7</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>13</v>
       </c>
@@ -1270,11 +1220,11 @@
       <c r="C35" s="16">
         <v>7</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>13</v>
       </c>
@@ -1284,25 +1234,25 @@
       <c r="C36" s="16">
         <v>7</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="33" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="30">
         <v>8</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>14</v>
       </c>
@@ -1312,11 +1262,11 @@
       <c r="C38" s="18">
         <v>8</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>14</v>
       </c>
@@ -1326,11 +1276,11 @@
       <c r="C39" s="18">
         <v>8</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>14</v>
       </c>
@@ -1340,11 +1290,11 @@
       <c r="C40" s="18">
         <v>8</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>14</v>
       </c>
@@ -1354,7 +1304,7 @@
       <c r="C41" s="18">
         <v>8</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="31" t="s">
         <v>54</v>
       </c>
     </row>
